--- a/experiment/xlsx/experiments_SD-VBS_stitch_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_SD-VBS_stitch_circle_pi4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">cycles per count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synbench repeat</t>
   </si>
   <si>
     <t xml:space="preserve">circle</t>
@@ -275,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,6 +311,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,6 +333,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -427,11 +438,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.81"/>
@@ -556,392 +567,396 @@
       <c r="U2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="0"/>
+      <c r="V2" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="n">
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="Q3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <f aca="false">INT(T3/U3)</f>
         <v>863978</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>17279560</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <f aca="false">INT(S3/10)</f>
         <v>1727956</v>
       </c>
-      <c r="U3" s="8" t="n">
+      <c r="U3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="V3" s="0"/>
+      <c r="V3" s="14"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <f aca="false">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="n">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="10" t="n">
+      <c r="Q4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <f aca="false">INT(T4/U4)</f>
         <v>1189314</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>23786298</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <f aca="false">INT(S4/10)</f>
         <v>2378629</v>
       </c>
-      <c r="U4" s="8" t="n">
+      <c r="U4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="V4" s="0"/>
+      <c r="V4" s="14"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="n">
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="10" t="n">
+      <c r="Q5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <f aca="false">INT(T5/U5)</f>
         <v>1543404</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>30868083</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <f aca="false">INT(S5/10)</f>
         <v>3086808</v>
       </c>
-      <c r="U5" s="8" t="n">
+      <c r="U5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="V5" s="0"/>
+      <c r="V5" s="14"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <f aca="false">A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="n">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="n">
+      <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="n">
         <v>110</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="10" t="n">
+      <c r="Q6" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="12" t="n">
         <f aca="false">INT(T6/U6)</f>
         <v>1992049</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="13" t="n">
         <v>39840982</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="12" t="n">
         <f aca="false">INT(S6/10)</f>
         <v>3984098</v>
       </c>
-      <c r="U6" s="8" t="n">
+      <c r="U6" s="9" t="n">
         <v>2</v>
       </c>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <f aca="false">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="n">
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="8" t="n">
+      <c r="P7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="10" t="n">
+      <c r="Q7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="11" t="n">
+      <c r="R7" s="12" t="n">
         <f aca="false">INT(T7/U7)</f>
         <v>2543549</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="13" t="n">
         <v>50870989</v>
       </c>
-      <c r="T7" s="11" t="n">
+      <c r="T7" s="12" t="n">
         <f aca="false">INT(S7/10)</f>
         <v>5087098</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="U7" s="9" t="n">
         <v>2</v>
       </c>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="15" t="n">
         <f aca="false">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="13" t="n">
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="15" t="n">
+      <c r="I8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="17" t="n">
         <f aca="false">N$3</f>
         <v>80</v>
       </c>
@@ -954,67 +969,70 @@
       <c r="Q8" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R8" s="16" t="n">
+      <c r="R8" s="18" t="n">
         <f aca="false">INT(T8/U8)</f>
         <v>863978</v>
       </c>
-      <c r="S8" s="15" t="n">
+      <c r="S8" s="17" t="n">
         <f aca="false">S$3</f>
         <v>17279560</v>
       </c>
-      <c r="T8" s="16" t="n">
+      <c r="T8" s="18" t="n">
         <f aca="false">INT(S8/10)</f>
         <v>1727956</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="V8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="15" t="n">
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="13" t="n">
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="15" t="n">
+      <c r="I9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="17" t="n">
         <f aca="false">N$4</f>
         <v>90</v>
       </c>
@@ -1027,67 +1045,70 @@
       <c r="Q9" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R9" s="16" t="n">
+      <c r="R9" s="18" t="n">
         <f aca="false">INT(T9/U9)</f>
         <v>1189314</v>
       </c>
-      <c r="S9" s="15" t="n">
+      <c r="S9" s="17" t="n">
         <f aca="false">S$4</f>
         <v>23786298</v>
       </c>
-      <c r="T9" s="16" t="n">
+      <c r="T9" s="18" t="n">
         <f aca="false">INT(S9/10)</f>
         <v>2378629</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="V9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="15" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="13" t="n">
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="15" t="n">
+      <c r="I10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="17" t="n">
         <f aca="false">N$5</f>
         <v>100</v>
       </c>
@@ -1100,67 +1121,70 @@
       <c r="Q10" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R10" s="16" t="n">
+      <c r="R10" s="18" t="n">
         <f aca="false">INT(T10/U10)</f>
         <v>1543404</v>
       </c>
-      <c r="S10" s="15" t="n">
+      <c r="S10" s="17" t="n">
         <f aca="false">S$5</f>
         <v>30868083</v>
       </c>
-      <c r="T10" s="16" t="n">
+      <c r="T10" s="18" t="n">
         <f aca="false">INT(S10/10)</f>
         <v>3086808</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="V10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="15" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13" t="n">
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="15" t="n">
+      <c r="I11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="17" t="n">
         <f aca="false">N$6</f>
         <v>110</v>
       </c>
@@ -1173,67 +1197,70 @@
       <c r="Q11" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R11" s="16" t="n">
+      <c r="R11" s="18" t="n">
         <f aca="false">INT(T11/U11)</f>
         <v>1992049</v>
       </c>
-      <c r="S11" s="15" t="n">
+      <c r="S11" s="17" t="n">
         <f aca="false">S$6</f>
         <v>39840982</v>
       </c>
-      <c r="T11" s="16" t="n">
+      <c r="T11" s="18" t="n">
         <f aca="false">INT(S11/10)</f>
         <v>3984098</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="V11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="15" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="13" t="n">
+      <c r="B12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="16" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="15" t="n">
+      <c r="I12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="17" t="n">
         <f aca="false">N$7</f>
         <v>120</v>
       </c>
@@ -1246,58 +1273,61 @@
       <c r="Q12" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R12" s="16" t="n">
+      <c r="R12" s="18" t="n">
         <f aca="false">INT(T12/U12)</f>
         <v>2543549</v>
       </c>
-      <c r="S12" s="15" t="n">
+      <c r="S12" s="17" t="n">
         <f aca="false">S$7</f>
         <v>50870989</v>
       </c>
-      <c r="T12" s="16" t="n">
+      <c r="T12" s="18" t="n">
         <f aca="false">INT(S12/10)</f>
         <v>5087098</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="V12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="15" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="F13" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="19" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="1" t="n">
         <f aca="false">N$5</f>
         <v>100</v>
@@ -1311,7 +1341,7 @@
       <c r="Q13" s="1" t="n">
         <v>12288</v>
       </c>
-      <c r="R13" s="16" t="n">
+      <c r="R13" s="18" t="n">
         <f aca="false">INT(T13/U13)/2</f>
         <v>771702</v>
       </c>
@@ -1319,12 +1349,15 @@
         <f aca="false">S$5</f>
         <v>30868083</v>
       </c>
-      <c r="T13" s="16" t="n">
+      <c r="T13" s="18" t="n">
         <f aca="false">INT(S13/10)</f>
         <v>3086808</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,9 +1365,9 @@
       <c r="C14" s="0"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1342,8 +1375,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="R14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,9 +1384,9 @@
       <c r="C15" s="0"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1361,8 +1394,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="R15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,9 +1403,9 @@
       <c r="C16" s="0"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1380,8 +1413,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="16"/>
-      <c r="T16" s="16"/>
+      <c r="R16" s="18"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,9 +1422,9 @@
       <c r="C17" s="0"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1399,8 +1432,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="16"/>
-      <c r="T17" s="16"/>
+      <c r="R17" s="18"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,9 +1441,9 @@
       <c r="C18" s="0"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1418,8 +1451,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="16"/>
-      <c r="T18" s="16"/>
+      <c r="R18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,9 +1460,9 @@
       <c r="C19" s="0"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1437,8 +1470,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="16"/>
-      <c r="T19" s="16"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,9 +1479,9 @@
       <c r="C20" s="0"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1456,8 +1489,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="R20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,9 +1498,9 @@
       <c r="C21" s="0"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1475,8 +1508,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="16"/>
-      <c r="T21" s="16"/>
+      <c r="R21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,9 +1517,9 @@
       <c r="C22" s="0"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1494,8 +1527,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="16"/>
-      <c r="T22" s="16"/>
+      <c r="R22" s="18"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,9 +1536,9 @@
       <c r="C23" s="0"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1513,8 +1546,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="R23" s="18"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,9 +1555,9 @@
       <c r="C24" s="0"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1532,8 +1565,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="16"/>
-      <c r="T24" s="16"/>
+      <c r="R24" s="18"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,9 +1574,9 @@
       <c r="C25" s="0"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1551,8 +1584,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="16"/>
-      <c r="T25" s="16"/>
+      <c r="R25" s="18"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,9 +1593,9 @@
       <c r="C26" s="0"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1570,8 +1603,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="16"/>
-      <c r="T26" s="16"/>
+      <c r="R26" s="18"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,9 +1612,9 @@
       <c r="C27" s="0"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1589,8 +1622,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="16"/>
-      <c r="T27" s="16"/>
+      <c r="R27" s="18"/>
+      <c r="T27" s="18"/>
       <c r="U27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,9 +1631,9 @@
       <c r="C28" s="0"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1608,8 +1641,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="R28" s="18"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,9 +1650,9 @@
       <c r="C29" s="0"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1627,8 +1660,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="16"/>
-      <c r="T29" s="16"/>
+      <c r="R29" s="18"/>
+      <c r="T29" s="18"/>
       <c r="U29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,9 +1669,9 @@
       <c r="C30" s="0"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1646,8 +1679,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="16"/>
-      <c r="T30" s="16"/>
+      <c r="R30" s="18"/>
+      <c r="T30" s="18"/>
       <c r="U30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,9 +1688,9 @@
       <c r="C31" s="0"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1665,8 +1698,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="R31" s="18"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,9 +1707,9 @@
       <c r="C32" s="0"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1684,8 +1717,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="16"/>
-      <c r="T32" s="16"/>
+      <c r="R32" s="18"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,9 +1726,9 @@
       <c r="C33" s="0"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1703,8 +1736,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="16"/>
-      <c r="T33" s="16"/>
+      <c r="R33" s="18"/>
+      <c r="T33" s="18"/>
       <c r="U33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,9 +1745,9 @@
       <c r="C34" s="0"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1722,8 +1755,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="16"/>
-      <c r="T34" s="16"/>
+      <c r="R34" s="18"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,9 +1764,9 @@
       <c r="C35" s="0"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1741,8 +1774,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="16"/>
-      <c r="T35" s="16"/>
+      <c r="R35" s="18"/>
+      <c r="T35" s="18"/>
       <c r="U35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,9 +1783,9 @@
       <c r="C36" s="0"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1760,8 +1793,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="16"/>
-      <c r="T36" s="16"/>
+      <c r="R36" s="18"/>
+      <c r="T36" s="18"/>
       <c r="U36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,9 +1802,9 @@
       <c r="C37" s="0"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1779,8 +1812,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="16"/>
-      <c r="T37" s="16"/>
+      <c r="R37" s="18"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,9 +1821,9 @@
       <c r="C38" s="0"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1798,8 +1831,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="16"/>
-      <c r="T38" s="16"/>
+      <c r="R38" s="18"/>
+      <c r="T38" s="18"/>
       <c r="U38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,9 +1840,9 @@
       <c r="C39" s="0"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1817,8 +1850,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="16"/>
-      <c r="T39" s="16"/>
+      <c r="R39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,9 +1859,9 @@
       <c r="C40" s="0"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1836,8 +1869,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="16"/>
-      <c r="T40" s="16"/>
+      <c r="R40" s="18"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,9 +1878,9 @@
       <c r="C41" s="0"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1855,8 +1888,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="16"/>
-      <c r="T41" s="16"/>
+      <c r="R41" s="18"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,9 +1897,9 @@
       <c r="C42" s="0"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1874,8 +1907,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="R42" s="18"/>
+      <c r="T42" s="18"/>
       <c r="U42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,9 +1916,9 @@
       <c r="C43" s="0"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -1893,8 +1926,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="R43" s="18"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,9 +1935,9 @@
       <c r="C44" s="0"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -1912,8 +1945,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="16"/>
-      <c r="T44" s="16"/>
+      <c r="R44" s="18"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,9 +1954,9 @@
       <c r="C45" s="0"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -1931,8 +1964,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="R45" s="18"/>
+      <c r="T45" s="18"/>
       <c r="U45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,9 +1973,9 @@
       <c r="C46" s="0"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -1950,8 +1983,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="R46" s="18"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,9 +1992,9 @@
       <c r="C47" s="0"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -1969,8 +2002,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="R47" s="18"/>
+      <c r="T47" s="18"/>
       <c r="U47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,9 +2011,9 @@
       <c r="C48" s="0"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -1988,8 +2021,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="16"/>
-      <c r="T48" s="16"/>
+      <c r="R48" s="18"/>
+      <c r="T48" s="18"/>
       <c r="U48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,9 +2030,9 @@
       <c r="C49" s="0"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2007,8 +2040,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="16"/>
-      <c r="T49" s="16"/>
+      <c r="R49" s="18"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,9 +2049,9 @@
       <c r="C50" s="0"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2026,8 +2059,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="16"/>
-      <c r="T50" s="16"/>
+      <c r="R50" s="18"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,9 +2068,9 @@
       <c r="C51" s="0"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2045,8 +2078,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="16"/>
-      <c r="T51" s="16"/>
+      <c r="R51" s="18"/>
+      <c r="T51" s="18"/>
       <c r="U51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,9 +2087,9 @@
       <c r="C52" s="0"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2064,8 +2097,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="16"/>
-      <c r="T52" s="16"/>
+      <c r="R52" s="18"/>
+      <c r="T52" s="18"/>
       <c r="U52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,9 +2106,9 @@
       <c r="C53" s="0"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2083,8 +2116,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="16"/>
-      <c r="T53" s="16"/>
+      <c r="R53" s="18"/>
+      <c r="T53" s="18"/>
       <c r="U53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,9 +2125,9 @@
       <c r="C54" s="0"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2102,8 +2135,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="16"/>
-      <c r="T54" s="16"/>
+      <c r="R54" s="18"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,9 +2144,9 @@
       <c r="C55" s="0"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2121,8 +2154,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="16"/>
-      <c r="T55" s="16"/>
+      <c r="R55" s="18"/>
+      <c r="T55" s="18"/>
       <c r="U55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,9 +2163,9 @@
       <c r="C56" s="0"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2140,8 +2173,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="16"/>
-      <c r="T56" s="16"/>
+      <c r="R56" s="18"/>
+      <c r="T56" s="18"/>
       <c r="U56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,9 +2182,9 @@
       <c r="C57" s="0"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2159,8 +2192,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="16"/>
-      <c r="T57" s="16"/>
+      <c r="R57" s="18"/>
+      <c r="T57" s="18"/>
       <c r="U57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,9 +2201,9 @@
       <c r="C58" s="0"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2178,8 +2211,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="16"/>
-      <c r="T58" s="16"/>
+      <c r="R58" s="18"/>
+      <c r="T58" s="18"/>
       <c r="U58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,9 +2220,9 @@
       <c r="C59" s="0"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2197,8 +2230,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="16"/>
-      <c r="T59" s="16"/>
+      <c r="R59" s="18"/>
+      <c r="T59" s="18"/>
       <c r="U59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,9 +2239,9 @@
       <c r="C60" s="0"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -2216,8 +2249,8 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="16"/>
-      <c r="T60" s="16"/>
+      <c r="R60" s="18"/>
+      <c r="T60" s="18"/>
       <c r="U60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,9 +2258,9 @@
       <c r="C61" s="0"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -2235,8 +2268,8 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="16"/>
-      <c r="T61" s="16"/>
+      <c r="R61" s="18"/>
+      <c r="T61" s="18"/>
       <c r="U61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,9 +2277,9 @@
       <c r="C62" s="0"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -2254,8 +2287,8 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="16"/>
-      <c r="T62" s="16"/>
+      <c r="R62" s="18"/>
+      <c r="T62" s="18"/>
       <c r="U62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,9 +2296,9 @@
       <c r="C63" s="0"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -2273,8 +2306,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="16"/>
-      <c r="T63" s="16"/>
+      <c r="R63" s="18"/>
+      <c r="T63" s="18"/>
       <c r="U63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,9 +2315,9 @@
       <c r="C64" s="0"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -2292,8 +2325,8 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="16"/>
-      <c r="T64" s="16"/>
+      <c r="R64" s="18"/>
+      <c r="T64" s="18"/>
       <c r="U64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,9 +2334,9 @@
       <c r="C65" s="0"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -2311,8 +2344,8 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="16"/>
-      <c r="T65" s="16"/>
+      <c r="R65" s="18"/>
+      <c r="T65" s="18"/>
       <c r="U65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,9 +2353,9 @@
       <c r="C66" s="0"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -2330,8 +2363,8 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="16"/>
-      <c r="T66" s="16"/>
+      <c r="R66" s="18"/>
+      <c r="T66" s="18"/>
       <c r="U66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,9 +2372,9 @@
       <c r="C67" s="0"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -2349,8 +2382,8 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="16"/>
-      <c r="T67" s="16"/>
+      <c r="R67" s="18"/>
+      <c r="T67" s="18"/>
       <c r="U67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,9 +2391,9 @@
       <c r="C68" s="0"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -2368,8 +2401,8 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="16"/>
-      <c r="T68" s="16"/>
+      <c r="R68" s="18"/>
+      <c r="T68" s="18"/>
       <c r="U68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,9 +2410,9 @@
       <c r="C69" s="0"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -2387,8 +2420,8 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="16"/>
-      <c r="T69" s="16"/>
+      <c r="R69" s="18"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,9 +2429,9 @@
       <c r="C70" s="0"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -2406,8 +2439,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="16"/>
-      <c r="T70" s="16"/>
+      <c r="R70" s="18"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,9 +2448,9 @@
       <c r="C71" s="0"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -2425,8 +2458,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="16"/>
-      <c r="T71" s="16"/>
+      <c r="R71" s="18"/>
+      <c r="T71" s="18"/>
       <c r="U71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,9 +2467,9 @@
       <c r="C72" s="0"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -2444,8 +2477,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="16"/>
-      <c r="T72" s="16"/>
+      <c r="R72" s="18"/>
+      <c r="T72" s="18"/>
       <c r="U72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,9 +2486,9 @@
       <c r="C73" s="0"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -2463,8 +2496,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="16"/>
-      <c r="T73" s="16"/>
+      <c r="R73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,9 +2505,9 @@
       <c r="C74" s="0"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -2482,8 +2515,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="16"/>
-      <c r="T74" s="16"/>
+      <c r="R74" s="18"/>
+      <c r="T74" s="18"/>
       <c r="U74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,9 +2524,9 @@
       <c r="C75" s="0"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -2501,8 +2534,8 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="16"/>
-      <c r="T75" s="16"/>
+      <c r="R75" s="18"/>
+      <c r="T75" s="18"/>
       <c r="U75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,9 +2543,9 @@
       <c r="C76" s="0"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -2520,8 +2553,8 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="16"/>
-      <c r="T76" s="16"/>
+      <c r="R76" s="18"/>
+      <c r="T76" s="18"/>
       <c r="U76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,9 +2562,9 @@
       <c r="C77" s="0"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -2539,8 +2572,8 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="16"/>
-      <c r="T77" s="16"/>
+      <c r="R77" s="18"/>
+      <c r="T77" s="18"/>
       <c r="U77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,9 +2581,9 @@
       <c r="C78" s="0"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -2558,8 +2591,8 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="16"/>
-      <c r="T78" s="16"/>
+      <c r="R78" s="18"/>
+      <c r="T78" s="18"/>
       <c r="U78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,9 +2600,9 @@
       <c r="C79" s="0"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -2577,8 +2610,8 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="16"/>
-      <c r="T79" s="16"/>
+      <c r="R79" s="18"/>
+      <c r="T79" s="18"/>
       <c r="U79" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
